--- a/data/raw/FORESTRYdata/2022/嘉義_v0.xlsx
+++ b/data/raw/FORESTRYdata/2022/嘉義_v0.xlsx
@@ -25315,7 +25315,7 @@
         <v>160</v>
       </c>
       <c r="K135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L135" t="n">
         <v>225347</v>
@@ -25639,7 +25639,7 @@
         <v>160</v>
       </c>
       <c r="K141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L141" t="n">
         <v>225340</v>
